--- a/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_32_8.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_32_8.xlsx
@@ -518,1211 +518,1211 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_32_8_24</t>
+          <t>model_32_8_9</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9957470000126286</v>
+        <v>0.9839684982512121</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7875228826271633</v>
+        <v>0.7603442556858688</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9541947607969142</v>
+        <v>0.6840259755732245</v>
       </c>
       <c r="E2" t="n">
-        <v>0.971984712404908</v>
+        <v>0.9355485235828087</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9691942473847397</v>
+        <v>0.9074299752545912</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02843983049881687</v>
+        <v>0.1072027260124224</v>
       </c>
       <c r="H2" t="n">
-        <v>1.420835462239323</v>
+        <v>1.60257906574183</v>
       </c>
       <c r="I2" t="n">
-        <v>0.04537169700524203</v>
+        <v>0.3957233323399512</v>
       </c>
       <c r="J2" t="n">
-        <v>0.132173887376642</v>
+        <v>0.2716795537688186</v>
       </c>
       <c r="K2" t="n">
-        <v>0.08877279219094203</v>
+        <v>0.3337014430543849</v>
       </c>
       <c r="L2" t="n">
-        <v>0.168250465096684</v>
+        <v>0.1870088247032783</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1686411293214584</v>
+        <v>0.3274182737912202</v>
       </c>
       <c r="N2" t="n">
-        <v>1.001570338456875</v>
+        <v>1.005919323722629</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1758205313319364</v>
+        <v>0.3413571475557758</v>
       </c>
       <c r="P2" t="n">
-        <v>185.1199292680441</v>
+        <v>182.4660672028968</v>
       </c>
       <c r="Q2" t="n">
-        <v>293.599877681314</v>
+        <v>290.9460156161666</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_32_8_23</t>
+          <t>model_32_8_8</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9957726921178937</v>
+        <v>0.9840748942054797</v>
       </c>
       <c r="C3" t="n">
-        <v>0.787489587225923</v>
+        <v>0.7603441705783727</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9544199030477846</v>
+        <v>0.686535983553326</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9721751726345012</v>
+        <v>0.9360032373078248</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9693888628310323</v>
+        <v>0.9081318412512133</v>
       </c>
       <c r="G3" t="n">
-        <v>0.02826802727260789</v>
+        <v>0.1064912557763274</v>
       </c>
       <c r="H3" t="n">
-        <v>1.421058108740728</v>
+        <v>1.602579634856048</v>
       </c>
       <c r="I3" t="n">
-        <v>0.04514868570419246</v>
+        <v>0.3925798184897618</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1312753112385061</v>
+        <v>0.2697628184390444</v>
       </c>
       <c r="K3" t="n">
-        <v>0.08821196977615955</v>
+        <v>0.3311713184644031</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1688142953504306</v>
+        <v>0.1881427728694344</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1681309824886772</v>
+        <v>0.3263299798920219</v>
       </c>
       <c r="N3" t="n">
-        <v>1.001560852141085</v>
+        <v>1.005880039062592</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1752886664923342</v>
+        <v>0.3402225227322097</v>
       </c>
       <c r="P3" t="n">
-        <v>185.1320477827334</v>
+        <v>182.4793848051802</v>
       </c>
       <c r="Q3" t="n">
-        <v>293.6119961960032</v>
+        <v>290.95933321845</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_32_8_22</t>
+          <t>model_32_8_10</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9958010044883014</v>
+        <v>0.9838704580795812</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7874523927464666</v>
+        <v>0.7603425473472472</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9546688476913249</v>
+        <v>0.6817362734877281</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9723861604116002</v>
+        <v>0.9351388813808544</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9696043624080458</v>
+        <v>0.9067927300959331</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02807870232132465</v>
+        <v>0.1078583210915521</v>
       </c>
       <c r="H4" t="n">
-        <v>1.421306828396118</v>
+        <v>1.602590489410059</v>
       </c>
       <c r="I4" t="n">
-        <v>0.04490209729783765</v>
+        <v>0.3985909368558038</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1302798877721759</v>
+        <v>0.2734063010338682</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0875909656602603</v>
+        <v>0.335998618944836</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1694439476111664</v>
+        <v>0.1859873675989184</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1675670084513197</v>
+        <v>0.3284179061676633</v>
       </c>
       <c r="N4" t="n">
-        <v>1.001550398342781</v>
+        <v>1.005955523170616</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1747006829126191</v>
+        <v>0.3423993363520084</v>
       </c>
       <c r="P4" t="n">
-        <v>185.1454878290409</v>
+        <v>182.4538735096409</v>
       </c>
       <c r="Q4" t="n">
-        <v>293.6254362423107</v>
+        <v>290.9338219229107</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_32_8_21</t>
+          <t>model_32_8_7</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9958321292434954</v>
+        <v>0.9841901229230668</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7874107764257183</v>
+        <v>0.7603415652017829</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9549447405029585</v>
+        <v>0.6892876722832695</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9726193837663264</v>
+        <v>0.9365078837783158</v>
       </c>
       <c r="F5" t="n">
-        <v>0.969842686861083</v>
+        <v>0.9089049118702818</v>
       </c>
       <c r="G5" t="n">
-        <v>0.02787057094002649</v>
+        <v>0.1057207208112423</v>
       </c>
       <c r="H5" t="n">
-        <v>1.421585116924588</v>
+        <v>1.602597057021301</v>
       </c>
       <c r="I5" t="n">
-        <v>0.04462881578521712</v>
+        <v>0.3891336256080813</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1291795586280773</v>
+        <v>0.2676356037414855</v>
       </c>
       <c r="K5" t="n">
-        <v>0.08690418720664722</v>
+        <v>0.3283845115917073</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1701398565732827</v>
+        <v>0.1893970874071181</v>
       </c>
       <c r="M5" t="n">
-        <v>0.166944814055503</v>
+        <v>0.3251472294380537</v>
       </c>
       <c r="N5" t="n">
-        <v>1.001538906125479</v>
+        <v>1.00583749307456</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1740520004132526</v>
+        <v>0.3389894201427851</v>
       </c>
       <c r="P5" t="n">
-        <v>185.1603679037402</v>
+        <v>182.4939087423062</v>
       </c>
       <c r="Q5" t="n">
-        <v>293.64031631701</v>
+        <v>290.9738571555761</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_32_8_20</t>
+          <t>model_32_8_11</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9958663293064705</v>
+        <v>0.9837804710167892</v>
       </c>
       <c r="C6" t="n">
-        <v>0.787364207297348</v>
+        <v>0.7603395873252129</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9552496805561703</v>
+        <v>0.6796533778023967</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9728773471014576</v>
+        <v>0.934770039008242</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9701062650791761</v>
+        <v>0.9062152899880643</v>
       </c>
       <c r="G6" t="n">
-        <v>0.02764187496143557</v>
+        <v>0.1084600649947942</v>
       </c>
       <c r="H6" t="n">
-        <v>1.421896524900431</v>
+        <v>1.602610283091032</v>
       </c>
       <c r="I6" t="n">
-        <v>0.04432676196037526</v>
+        <v>0.4011995386958165</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1279625082341024</v>
+        <v>0.2749610665221522</v>
       </c>
       <c r="K6" t="n">
-        <v>0.08614463509723883</v>
+        <v>0.3380802063464085</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1709178227829659</v>
+        <v>0.1850736121684167</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1662584583154661</v>
+        <v>0.3293327572453038</v>
       </c>
       <c r="N6" t="n">
-        <v>1.001526278409919</v>
+        <v>1.005988749163032</v>
       </c>
       <c r="O6" t="n">
-        <v>0.17333642508841</v>
+        <v>0.3433531345340268</v>
       </c>
       <c r="P6" t="n">
-        <v>185.1768468946194</v>
+        <v>182.4427464766362</v>
       </c>
       <c r="Q6" t="n">
-        <v>293.6567953078892</v>
+        <v>290.922694889906</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_32_8_19</t>
+          <t>model_32_8_12</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9959038790415586</v>
+        <v>0.9836980413288972</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7873119928816052</v>
+        <v>0.7603356852967516</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9555879992846752</v>
+        <v>0.6777601036417946</v>
       </c>
       <c r="E7" t="n">
-        <v>0.973162425289715</v>
+        <v>0.9344379441837181</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9703977762399831</v>
+        <v>0.9056922204277763</v>
       </c>
       <c r="G7" t="n">
-        <v>0.02739077970999991</v>
+        <v>0.1090112726972824</v>
       </c>
       <c r="H7" t="n">
-        <v>1.422245682938928</v>
+        <v>1.60263637597332</v>
       </c>
       <c r="I7" t="n">
-        <v>0.04399164538620212</v>
+        <v>0.4035706600600671</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1266175321305954</v>
+        <v>0.2763609316416349</v>
       </c>
       <c r="K7" t="n">
-        <v>0.08530458875839875</v>
+        <v>0.339965795850851</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1717765203606093</v>
+        <v>0.1842464288874031</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1655016003245887</v>
+        <v>0.3301685519507914</v>
       </c>
       <c r="N7" t="n">
-        <v>1.001512413892348</v>
+        <v>1.006019184740099</v>
       </c>
       <c r="O7" t="n">
-        <v>0.172547346085949</v>
+        <v>0.3442245107504606</v>
       </c>
       <c r="P7" t="n">
-        <v>185.1950976583072</v>
+        <v>182.4326079657185</v>
       </c>
       <c r="Q7" t="n">
-        <v>293.675046071577</v>
+        <v>290.9125563789884</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_32_8_18</t>
+          <t>model_32_8_6</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9959449981296717</v>
+        <v>0.984314260938824</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7872535032404888</v>
+        <v>0.7603356453549042</v>
       </c>
       <c r="D8" t="n">
-        <v>0.955961164325969</v>
+        <v>0.6922909307414251</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9734773290211914</v>
+        <v>0.937068400094663</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9707196915564861</v>
+        <v>0.9097543032222457</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02711581617845213</v>
+        <v>0.1048906093282709</v>
       </c>
       <c r="H8" t="n">
-        <v>1.422636803438393</v>
+        <v>1.602636643064637</v>
       </c>
       <c r="I8" t="n">
-        <v>0.04362201231624989</v>
+        <v>0.3853723688177627</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1251318414983868</v>
+        <v>0.2652728832706676</v>
       </c>
       <c r="K8" t="n">
-        <v>0.08437692690731834</v>
+        <v>0.3253225796040278</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1727343680897143</v>
+        <v>0.1907962951088554</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1646688075454855</v>
+        <v>0.323868197463522</v>
       </c>
       <c r="N8" t="n">
-        <v>1.001497231459814</v>
+        <v>1.005791657499511</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1716790995941206</v>
+        <v>0.3376559371291363</v>
       </c>
       <c r="P8" t="n">
-        <v>185.2152761970339</v>
+        <v>182.5096745756265</v>
       </c>
       <c r="Q8" t="n">
-        <v>293.6952246103037</v>
+        <v>290.9896229888964</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_32_8_17</t>
+          <t>model_32_8_13</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9959899783508794</v>
+        <v>0.9836226261514482</v>
       </c>
       <c r="C9" t="n">
-        <v>0.787187867224129</v>
+        <v>0.760331257630559</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9563742908710218</v>
+        <v>0.6760389334101371</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9738248274269694</v>
+        <v>0.9341389756456789</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9710751755809501</v>
+        <v>0.9052184575132254</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02681503323212089</v>
+        <v>0.1095155743361378</v>
       </c>
       <c r="H9" t="n">
-        <v>1.423075711782018</v>
+        <v>1.602665983797537</v>
       </c>
       <c r="I9" t="n">
-        <v>0.04321279597434083</v>
+        <v>0.4057262398449289</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1234923717983895</v>
+        <v>0.2776211609415757</v>
       </c>
       <c r="K9" t="n">
-        <v>0.08335253026864251</v>
+        <v>0.3416736420860238</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1737974319248369</v>
+        <v>0.183503668754742</v>
       </c>
       <c r="M9" t="n">
-        <v>0.1637529640407186</v>
+        <v>0.3309313740583352</v>
       </c>
       <c r="N9" t="n">
-        <v>1.001480623378137</v>
+        <v>1.006047030344081</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1707242667352984</v>
+        <v>0.345019807774382</v>
       </c>
       <c r="P9" t="n">
-        <v>185.2375852144743</v>
+        <v>182.4233770169185</v>
       </c>
       <c r="Q9" t="n">
-        <v>293.7175336277441</v>
+        <v>290.9033254301883</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_32_8_16</t>
+          <t>model_32_8_14</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9960390491735225</v>
+        <v>0.983553869442486</v>
       </c>
       <c r="C10" t="n">
-        <v>0.78711412380584</v>
+        <v>0.7603265227339988</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9568304133069386</v>
+        <v>0.6744794196888277</v>
       </c>
       <c r="E10" t="n">
-        <v>0.974207979296806</v>
+        <v>0.9338698707731867</v>
       </c>
       <c r="F10" t="n">
-        <v>0.971467197934454</v>
+        <v>0.9047902036680393</v>
       </c>
       <c r="G10" t="n">
-        <v>0.02648689641515644</v>
+        <v>0.1099753507655643</v>
       </c>
       <c r="H10" t="n">
-        <v>1.423568834359674</v>
+        <v>1.602697646072637</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0427609906935528</v>
+        <v>0.4076793623136066</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1216846919050441</v>
+        <v>0.2787555072085632</v>
       </c>
       <c r="K10" t="n">
-        <v>0.08222284129929847</v>
+        <v>0.3432174347610849</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1749816076886038</v>
+        <v>0.1828352494609729</v>
       </c>
       <c r="M10" t="n">
-        <v>0.1627479536435296</v>
+        <v>0.3316253168344726</v>
       </c>
       <c r="N10" t="n">
-        <v>1.001462504920545</v>
+        <v>1.00607241743662</v>
       </c>
       <c r="O10" t="n">
-        <v>0.1696764709648426</v>
+        <v>0.3457432931311591</v>
       </c>
       <c r="P10" t="n">
-        <v>185.2622102863655</v>
+        <v>182.4149980444994</v>
       </c>
       <c r="Q10" t="n">
-        <v>293.7421586996353</v>
+        <v>290.8949464577692</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_32_8_15</t>
+          <t>model_32_8_5</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9960925402794849</v>
+        <v>0.9844475107273141</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7870312843594844</v>
+        <v>0.7603253067445086</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9573343268073659</v>
+        <v>0.6955666813909649</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9746305619915823</v>
+        <v>0.9376903350091834</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9718997307199624</v>
+        <v>0.9106869410241963</v>
       </c>
       <c r="G11" t="n">
-        <v>0.02612920114328184</v>
+        <v>0.1039995673790788</v>
       </c>
       <c r="H11" t="n">
-        <v>1.424122782118894</v>
+        <v>1.602705777399957</v>
       </c>
       <c r="I11" t="n">
-        <v>0.04226184668609838</v>
+        <v>0.381269844993843</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1196909805316705</v>
+        <v>0.2626512676081116</v>
       </c>
       <c r="K11" t="n">
-        <v>0.08097641360888447</v>
+        <v>0.3219605563009773</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1762911898316702</v>
+        <v>0.1923362150859428</v>
       </c>
       <c r="M11" t="n">
-        <v>0.1616452942194168</v>
+        <v>0.3224896391809803</v>
       </c>
       <c r="N11" t="n">
-        <v>1.001442754358344</v>
+        <v>1.005742457577607</v>
       </c>
       <c r="O11" t="n">
-        <v>0.1685268690462258</v>
+        <v>0.3362186907664978</v>
       </c>
       <c r="P11" t="n">
-        <v>185.2894035446267</v>
+        <v>182.5267370793319</v>
       </c>
       <c r="Q11" t="n">
-        <v>293.7693519578966</v>
+        <v>291.0066854926018</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_32_8_14</t>
+          <t>model_32_8_15</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9961505812565697</v>
+        <v>0.9834912494788079</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7869379966498367</v>
+        <v>0.7603216426504255</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9578899939898269</v>
+        <v>0.673067277706084</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9750953814846627</v>
+        <v>0.933627488350746</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9723757333472326</v>
+        <v>0.9044031894655193</v>
       </c>
       <c r="G12" t="n">
-        <v>0.02574108086226148</v>
+        <v>0.1103940907510178</v>
       </c>
       <c r="H12" t="n">
-        <v>1.424746597462859</v>
+        <v>1.602730279213963</v>
       </c>
       <c r="I12" t="n">
-        <v>0.04171143884024923</v>
+        <v>0.4094479175996377</v>
       </c>
       <c r="J12" t="n">
-        <v>0.1174979993202393</v>
+        <v>0.2797772114740149</v>
       </c>
       <c r="K12" t="n">
-        <v>0.07960471908024427</v>
+        <v>0.3446125645368263</v>
       </c>
       <c r="L12" t="n">
-        <v>0.1777470357891363</v>
+        <v>0.1822320139043762</v>
       </c>
       <c r="M12" t="n">
-        <v>0.1604402719464832</v>
+        <v>0.3322560620229792</v>
       </c>
       <c r="N12" t="n">
-        <v>1.001421323843728</v>
+        <v>1.006095538653978</v>
       </c>
       <c r="O12" t="n">
-        <v>0.1672705464803934</v>
+        <v>0.3464008904481631</v>
       </c>
       <c r="P12" t="n">
-        <v>185.3193341723099</v>
+        <v>182.4073973447554</v>
       </c>
       <c r="Q12" t="n">
-        <v>293.7992825855797</v>
+        <v>290.8873457580252</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_32_8_13</t>
+          <t>model_32_8_16</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9962134125426312</v>
+        <v>0.9834342822466192</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7868328580211639</v>
+        <v>0.760316721382201</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9585023238949226</v>
+        <v>0.6717881584939107</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9756065605702537</v>
+        <v>0.9334094412026372</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9728994244424652</v>
+        <v>0.9040535241138599</v>
       </c>
       <c r="G13" t="n">
-        <v>0.025320927763057</v>
+        <v>0.1107750308949735</v>
       </c>
       <c r="H13" t="n">
-        <v>1.425449659956913</v>
+        <v>1.60276318775724</v>
       </c>
       <c r="I13" t="n">
-        <v>0.04110490457900295</v>
+        <v>0.4110498762353818</v>
       </c>
       <c r="J13" t="n">
-        <v>0.115086297257254</v>
+        <v>0.2806963362977089</v>
       </c>
       <c r="K13" t="n">
-        <v>0.07809560091812849</v>
+        <v>0.345873057150454</v>
       </c>
       <c r="L13" t="n">
-        <v>0.1793622746957831</v>
+        <v>0.1816854631025341</v>
       </c>
       <c r="M13" t="n">
-        <v>0.1591255094667633</v>
+        <v>0.3328288312255618</v>
       </c>
       <c r="N13" t="n">
-        <v>1.001398124599644</v>
+        <v>1.006116572708941</v>
       </c>
       <c r="O13" t="n">
-        <v>0.1658998118399783</v>
+        <v>0.3469980436214953</v>
       </c>
       <c r="P13" t="n">
-        <v>185.352248081733</v>
+        <v>182.4005077659964</v>
       </c>
       <c r="Q13" t="n">
-        <v>293.8321964950028</v>
+        <v>290.8804561792662</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_32_8_12</t>
+          <t>model_32_8_17</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9962812020322938</v>
+        <v>0.9833824212352984</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7867141887918216</v>
+        <v>0.7603118921254285</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9591771856890347</v>
+        <v>0.6706287433401168</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9761679834058034</v>
+        <v>0.9332127708014064</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9734750104674698</v>
+        <v>0.9037371097478631</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02486761913354179</v>
+        <v>0.1111218257164742</v>
       </c>
       <c r="H14" t="n">
-        <v>1.426243201639946</v>
+        <v>1.602795481019515</v>
       </c>
       <c r="I14" t="n">
-        <v>0.04043643028707515</v>
+        <v>0.4125019184690973</v>
       </c>
       <c r="J14" t="n">
-        <v>0.1124375491983687</v>
+        <v>0.2815253526339689</v>
       </c>
       <c r="K14" t="n">
-        <v>0.07643693738135687</v>
+        <v>0.3470136848085606</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1811576132681595</v>
+        <v>0.1811977180949463</v>
       </c>
       <c r="M14" t="n">
-        <v>0.1576947023001781</v>
+        <v>0.3333494048539373</v>
       </c>
       <c r="N14" t="n">
-        <v>1.00137309463423</v>
+        <v>1.006135721390044</v>
       </c>
       <c r="O14" t="n">
-        <v>0.1644080922501323</v>
+        <v>0.3475407791469667</v>
       </c>
       <c r="P14" t="n">
-        <v>185.3883775164333</v>
+        <v>182.3942563010743</v>
       </c>
       <c r="Q14" t="n">
-        <v>293.8683259297031</v>
+        <v>290.8742047143442</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_32_8_11</t>
+          <t>model_32_8_4</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9963539681075227</v>
+        <v>0.9845895250931087</v>
       </c>
       <c r="C15" t="n">
-        <v>0.786580110199594</v>
+        <v>0.7603090915292876</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9599193249806751</v>
+        <v>0.6991241824916905</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9767834985964794</v>
+        <v>0.9383799352905048</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9741064029973538</v>
+        <v>0.9117081084438453</v>
       </c>
       <c r="G15" t="n">
-        <v>0.02438103205342853</v>
+        <v>0.1030499166610947</v>
       </c>
       <c r="H15" t="n">
-        <v>1.427139785803547</v>
+        <v>1.602814208618804</v>
       </c>
       <c r="I15" t="n">
-        <v>0.03970131527268338</v>
+        <v>0.3768144591660487</v>
       </c>
       <c r="J15" t="n">
-        <v>0.1095335977320534</v>
+        <v>0.2597444250170201</v>
       </c>
       <c r="K15" t="n">
-        <v>0.07461745650236837</v>
+        <v>0.3182793966332105</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1831504372374841</v>
+        <v>0.1940504802622128</v>
       </c>
       <c r="M15" t="n">
-        <v>0.1561442667965383</v>
+        <v>0.321013888579754</v>
       </c>
       <c r="N15" t="n">
-        <v>1.001346227160299</v>
+        <v>1.005690021504083</v>
       </c>
       <c r="O15" t="n">
-        <v>0.1627916514972587</v>
+        <v>0.3346801144069524</v>
       </c>
       <c r="P15" t="n">
-        <v>185.42789964771</v>
+        <v>182.545083560738</v>
       </c>
       <c r="Q15" t="n">
-        <v>293.9078480609798</v>
+        <v>291.0250319740078</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_32_8_10</t>
+          <t>model_32_8_18</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9964317076367255</v>
+        <v>0.9833354186328357</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7864283276118862</v>
+        <v>0.7603072452494091</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9607337929178295</v>
+        <v>0.6695812589443677</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9774575457024779</v>
+        <v>0.9330361359433897</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9747981588979593</v>
+        <v>0.9034518937881636</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0238611874636922</v>
+        <v>0.1114361323355696</v>
       </c>
       <c r="H16" t="n">
-        <v>1.428154756666444</v>
+        <v>1.602826554700854</v>
       </c>
       <c r="I16" t="n">
-        <v>0.03889455619647349</v>
+        <v>0.4138137795197389</v>
       </c>
       <c r="J16" t="n">
-        <v>0.1063534973681932</v>
+        <v>0.2822699140012733</v>
       </c>
       <c r="K16" t="n">
-        <v>0.07262402678233335</v>
+        <v>0.3480418467605061</v>
       </c>
       <c r="L16" t="n">
-        <v>0.1853656312359969</v>
+        <v>0.180756322380705</v>
       </c>
       <c r="M16" t="n">
-        <v>0.1544706686192955</v>
+        <v>0.3338205091595926</v>
       </c>
       <c r="N16" t="n">
-        <v>1.001317523334132</v>
+        <v>1.006153076197107</v>
       </c>
       <c r="O16" t="n">
-        <v>0.1610468047807848</v>
+        <v>0.3480319393382341</v>
       </c>
       <c r="P16" t="n">
-        <v>185.4710041911675</v>
+        <v>182.3886073127245</v>
       </c>
       <c r="Q16" t="n">
-        <v>293.9509526044374</v>
+        <v>290.8685557259943</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_32_8_9</t>
+          <t>model_32_8_19</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9965142431254089</v>
+        <v>0.9832927987053853</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7862562292161657</v>
+        <v>0.7603027746574389</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9616281269019062</v>
+        <v>0.6686352344682317</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9781939583187697</v>
+        <v>0.9328769600261946</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9755546936140094</v>
+        <v>0.9031945264988326</v>
       </c>
       <c r="G17" t="n">
-        <v>0.02330927227082499</v>
+        <v>0.1117211319866764</v>
       </c>
       <c r="H17" t="n">
-        <v>1.429305579431067</v>
+        <v>1.602856449569943</v>
       </c>
       <c r="I17" t="n">
-        <v>0.03800868699781881</v>
+        <v>0.4149985729813244</v>
       </c>
       <c r="J17" t="n">
-        <v>0.1028791615121676</v>
+        <v>0.2829408814415597</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0704439242549932</v>
+        <v>0.3489696183159416</v>
       </c>
       <c r="L17" t="n">
-        <v>0.1878239323515964</v>
+        <v>0.1803640123579601</v>
       </c>
       <c r="M17" t="n">
-        <v>0.1526737445365934</v>
+        <v>0.3342471121590677</v>
       </c>
       <c r="N17" t="n">
-        <v>1.001287048692157</v>
+        <v>1.006168812785704</v>
       </c>
       <c r="O17" t="n">
-        <v>0.1591733819197365</v>
+        <v>0.3484767037105868</v>
       </c>
       <c r="P17" t="n">
-        <v>185.5178080920693</v>
+        <v>182.3834988112034</v>
       </c>
       <c r="Q17" t="n">
-        <v>293.9977565053391</v>
+        <v>290.8634472244732</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_32_8_8</t>
+          <t>model_32_8_20</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9966011655353761</v>
+        <v>0.9832542098630579</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7860608175049079</v>
+        <v>0.760298543583717</v>
       </c>
       <c r="D18" t="n">
-        <v>0.962607156182736</v>
+        <v>0.6677808921409714</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9789967483581112</v>
+        <v>0.932733870892163</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9763801298048779</v>
+        <v>0.9029624439402669</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02272802171513339</v>
+        <v>0.1119791757530054</v>
       </c>
       <c r="H18" t="n">
-        <v>1.430612298444037</v>
+        <v>1.602884742779404</v>
       </c>
       <c r="I18" t="n">
-        <v>0.03703892413527553</v>
+        <v>0.4160685444554538</v>
       </c>
       <c r="J18" t="n">
-        <v>0.09909166228029805</v>
+        <v>0.2835440389523551</v>
       </c>
       <c r="K18" t="n">
-        <v>0.06806526867225127</v>
+        <v>0.3498062421033297</v>
       </c>
       <c r="L18" t="n">
-        <v>0.1905455657036428</v>
+        <v>0.1800076245991916</v>
       </c>
       <c r="M18" t="n">
-        <v>0.1507581563801222</v>
+        <v>0.3346328969975985</v>
       </c>
       <c r="N18" t="n">
-        <v>1.001254954263861</v>
+        <v>1.00618306097364</v>
       </c>
       <c r="O18" t="n">
-        <v>0.1571762432096302</v>
+        <v>0.3488789122083785</v>
       </c>
       <c r="P18" t="n">
-        <v>185.5683133579908</v>
+        <v>182.3788847115021</v>
       </c>
       <c r="Q18" t="n">
-        <v>294.0482617712606</v>
+        <v>290.8588331247719</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_32_8_7</t>
+          <t>model_32_8_21</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9966918929887085</v>
+        <v>0.9832191767565941</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7858383809782603</v>
+        <v>0.7602945282408319</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9636778268416891</v>
+        <v>0.6670075343506623</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9798698690556835</v>
+        <v>0.9326046991343858</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9772788718522197</v>
+        <v>0.9027525688115943</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02212132681693814</v>
+        <v>0.1122134422972413</v>
       </c>
       <c r="H19" t="n">
-        <v>1.432099732521955</v>
+        <v>1.602911593395766</v>
       </c>
       <c r="I19" t="n">
-        <v>0.03597838727146729</v>
+        <v>0.4170370915454475</v>
       </c>
       <c r="J19" t="n">
-        <v>0.09497234862501516</v>
+        <v>0.2840885311418788</v>
       </c>
       <c r="K19" t="n">
-        <v>0.06547536794824123</v>
+        <v>0.3505628113436632</v>
       </c>
       <c r="L19" t="n">
-        <v>0.1935679814929396</v>
+        <v>0.1796851802787285</v>
       </c>
       <c r="M19" t="n">
-        <v>0.148732400024131</v>
+        <v>0.3349827492532134</v>
       </c>
       <c r="N19" t="n">
-        <v>1.001221454896477</v>
+        <v>1.006195996274488</v>
       </c>
       <c r="O19" t="n">
-        <v>0.1550642462116707</v>
+        <v>0.349243658398809</v>
       </c>
       <c r="P19" t="n">
-        <v>185.6224262428887</v>
+        <v>182.374704972998</v>
       </c>
       <c r="Q19" t="n">
-        <v>294.1023746561585</v>
+        <v>290.8546533862678</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_32_8_6</t>
+          <t>model_32_8_22</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9967854780450552</v>
+        <v>0.9831875350476059</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7855847937070047</v>
+        <v>0.760290813651518</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9648454305932092</v>
+        <v>0.6663104998352651</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9808169242470538</v>
+        <v>0.932488669782749</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9782548126106624</v>
+        <v>0.9025636355741615</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02149552311422797</v>
+        <v>0.1124250305509424</v>
       </c>
       <c r="H20" t="n">
-        <v>1.433795471772503</v>
+        <v>1.602936432871612</v>
       </c>
       <c r="I20" t="n">
-        <v>0.03482183477752072</v>
+        <v>0.4179100519784746</v>
       </c>
       <c r="J20" t="n">
-        <v>0.09050421793819816</v>
+        <v>0.2845776247085292</v>
       </c>
       <c r="K20" t="n">
-        <v>0.06266300406212125</v>
+        <v>0.3512438881192789</v>
       </c>
       <c r="L20" t="n">
-        <v>0.1969270105404409</v>
+        <v>0.1793974520495951</v>
       </c>
       <c r="M20" t="n">
-        <v>0.1466135161375921</v>
+        <v>0.3352984201438212</v>
       </c>
       <c r="N20" t="n">
-        <v>1.001186900414133</v>
+        <v>1.006207679367038</v>
       </c>
       <c r="O20" t="n">
-        <v>0.1528551570513874</v>
+        <v>0.3495727680527587</v>
       </c>
       <c r="P20" t="n">
-        <v>185.6798211855521</v>
+        <v>182.3709373491606</v>
       </c>
       <c r="Q20" t="n">
-        <v>294.1597695988219</v>
+        <v>290.8508857624304</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_32_8_5</t>
+          <t>model_32_8_23</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9968805090097821</v>
+        <v>0.983158916253981</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7852950617273504</v>
+        <v>0.760287355774258</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9661154915408132</v>
+        <v>0.6656815276755546</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9818403856672949</v>
+        <v>0.9323841839973325</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9793108449938599</v>
+        <v>0.9023932882828587</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02086005061552277</v>
+        <v>0.112616404555689</v>
       </c>
       <c r="H21" t="n">
-        <v>1.435732910854544</v>
+        <v>1.602959555712771</v>
       </c>
       <c r="I21" t="n">
-        <v>0.03356379483502871</v>
+        <v>0.4186977716634749</v>
       </c>
       <c r="J21" t="n">
-        <v>0.08567560877135943</v>
+        <v>0.2850180591738843</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0596198405182428</v>
+        <v>0.3518579652688149</v>
       </c>
       <c r="L21" t="n">
-        <v>0.2006529904049821</v>
+        <v>0.179135704132479</v>
       </c>
       <c r="M21" t="n">
-        <v>0.1444300890241461</v>
+        <v>0.3355836774273877</v>
       </c>
       <c r="N21" t="n">
-        <v>1.001151812057927</v>
+        <v>1.006218246306222</v>
       </c>
       <c r="O21" t="n">
-        <v>0.1505787769254049</v>
+        <v>0.3498701693294507</v>
       </c>
       <c r="P21" t="n">
-        <v>185.7398388059464</v>
+        <v>182.3675357702329</v>
       </c>
       <c r="Q21" t="n">
-        <v>294.2197872192162</v>
+        <v>290.8474841835027</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_32_8_4</t>
+          <t>model_32_8_3</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9969751070221197</v>
+        <v>0.9847399960604436</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7849632860083046</v>
+        <v>0.7602852602840739</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9674931597844233</v>
+        <v>0.7029764750762847</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9829425290098847</v>
+        <v>0.9391452844504674</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9804498846395998</v>
+        <v>0.9128247462523652</v>
       </c>
       <c r="G22" t="n">
-        <v>0.02022747327143704</v>
+        <v>0.1020437166096706</v>
       </c>
       <c r="H22" t="n">
-        <v>1.43795149661549</v>
+        <v>1.602973568265281</v>
       </c>
       <c r="I22" t="n">
-        <v>0.03219916608927133</v>
+        <v>0.3719898788497089</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0804757845845859</v>
+        <v>0.2565182814154354</v>
       </c>
       <c r="K22" t="n">
-        <v>0.05633747533692862</v>
+        <v>0.3142540801325722</v>
       </c>
       <c r="L22" t="n">
-        <v>0.2047851759003095</v>
+        <v>0.1959509272257669</v>
       </c>
       <c r="M22" t="n">
-        <v>0.1422233218267561</v>
+        <v>0.3194428221288915</v>
       </c>
       <c r="N22" t="n">
-        <v>1.001116883561064</v>
+        <v>1.005634462993067</v>
       </c>
       <c r="O22" t="n">
-        <v>0.1482780630797841</v>
+        <v>0.3330421644047208</v>
       </c>
       <c r="P22" t="n">
-        <v>185.8014270713608</v>
+        <v>182.5647079266113</v>
       </c>
       <c r="Q22" t="n">
-        <v>294.2813754846306</v>
+        <v>291.0446563398812</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_32_8_3</t>
+          <t>model_32_8_24</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9970666385243969</v>
+        <v>0.9831330619793262</v>
       </c>
       <c r="C23" t="n">
-        <v>0.784582480864342</v>
+        <v>0.7602841773231398</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9689830222781762</v>
+        <v>0.6651140462935049</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9841236430579715</v>
+        <v>0.9322902886659312</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9816728590600718</v>
+        <v>0.9022398448229247</v>
       </c>
       <c r="G23" t="n">
-        <v>0.01961540169424521</v>
+        <v>0.1127892922093544</v>
       </c>
       <c r="H23" t="n">
-        <v>1.440497942366614</v>
+        <v>1.602980810030034</v>
       </c>
       <c r="I23" t="n">
-        <v>0.03072340500119307</v>
+        <v>0.4194084807920274</v>
       </c>
       <c r="J23" t="n">
-        <v>0.07490338292206805</v>
+        <v>0.2854138521510839</v>
       </c>
       <c r="K23" t="n">
-        <v>0.05281323571067058</v>
+        <v>0.3524111065707433</v>
       </c>
       <c r="L23" t="n">
-        <v>0.2093678504012332</v>
+        <v>0.1789024498705638</v>
       </c>
       <c r="M23" t="n">
-        <v>0.1400549952491706</v>
+        <v>0.3358411711052627</v>
       </c>
       <c r="N23" t="n">
-        <v>1.001083087314069</v>
+        <v>1.006227792499941</v>
       </c>
       <c r="O23" t="n">
-        <v>0.146017426350736</v>
+        <v>0.3501386250462782</v>
       </c>
       <c r="P23" t="n">
-        <v>185.8628804411972</v>
+        <v>182.3644677432922</v>
       </c>
       <c r="Q23" t="n">
-        <v>294.342828854467</v>
+        <v>290.844416156562</v>
       </c>
     </row>
     <row r="24">
@@ -1732,52 +1732,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9971516004420284</v>
+        <v>0.9848979215719191</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7841444310091865</v>
+        <v>0.7602515113942753</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9705875719323105</v>
+        <v>0.7071295394835733</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9853825496597988</v>
+        <v>0.9399934074282507</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9829791431107138</v>
+        <v>0.9140420383493013</v>
       </c>
       <c r="G24" t="n">
-        <v>0.01904726095982945</v>
+        <v>0.1009876679872537</v>
       </c>
       <c r="H24" t="n">
-        <v>1.443427183765074</v>
+        <v>1.603199247246764</v>
       </c>
       <c r="I24" t="n">
-        <v>0.02913404225571172</v>
+        <v>0.3667886143164733</v>
       </c>
       <c r="J24" t="n">
-        <v>0.06896396220961458</v>
+        <v>0.2529432248774943</v>
       </c>
       <c r="K24" t="n">
-        <v>0.04904892311560881</v>
+        <v>0.3098659195969838</v>
       </c>
       <c r="L24" t="n">
-        <v>0.2144485773235109</v>
+        <v>0.1980595788517232</v>
       </c>
       <c r="M24" t="n">
-        <v>0.1380118145661068</v>
+        <v>0.3177855691928972</v>
       </c>
       <c r="N24" t="n">
-        <v>1.001051716759866</v>
+        <v>1.005576152034984</v>
       </c>
       <c r="O24" t="n">
-        <v>0.1438872632360271</v>
+        <v>0.3313143587802548</v>
       </c>
       <c r="P24" t="n">
-        <v>185.9216639387665</v>
+        <v>182.5855137374634</v>
       </c>
       <c r="Q24" t="n">
-        <v>294.4016123520363</v>
+        <v>291.0654621507332</v>
       </c>
     </row>
     <row r="25">
@@ -1787,52 +1787,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9972253492383912</v>
+        <v>0.9850618253554086</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7836392406495085</v>
+        <v>0.7602050941472827</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9723070630494871</v>
+        <v>0.7115816743713534</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9867155549003221</v>
+        <v>0.9409333045541378</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9843658390360254</v>
+        <v>0.9153649387551965</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01855410241896999</v>
+        <v>0.09989164263235217</v>
       </c>
       <c r="H25" t="n">
-        <v>1.446805394026428</v>
+        <v>1.603509639591135</v>
       </c>
       <c r="I25" t="n">
-        <v>0.02743082595711661</v>
+        <v>0.3612127963136628</v>
       </c>
       <c r="J25" t="n">
-        <v>0.06267495004311883</v>
+        <v>0.248981316695644</v>
       </c>
       <c r="K25" t="n">
-        <v>0.04505288800011772</v>
+        <v>0.3050970565046534</v>
       </c>
       <c r="L25" t="n">
-        <v>0.2200832093001314</v>
+        <v>0.2003935141014016</v>
       </c>
       <c r="M25" t="n">
-        <v>0.1362134443400136</v>
+        <v>0.3160563915385231</v>
       </c>
       <c r="N25" t="n">
-        <v>1.001024486435055</v>
+        <v>1.005515633714926</v>
       </c>
       <c r="O25" t="n">
-        <v>0.1420123326662695</v>
+        <v>0.3295115664532426</v>
       </c>
       <c r="P25" t="n">
-        <v>185.9741287194367</v>
+        <v>182.6073385083218</v>
       </c>
       <c r="Q25" t="n">
-        <v>294.4540771327065</v>
+        <v>291.0872869215917</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9972818346131</v>
+        <v>0.9852295294839903</v>
       </c>
       <c r="C26" t="n">
-        <v>0.783055084325063</v>
+        <v>0.7601423909835613</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9741389444745808</v>
+        <v>0.7163255994616453</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9881158380228096</v>
+        <v>0.9419741141716176</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9858269906787269</v>
+        <v>0.9167975256803371</v>
       </c>
       <c r="G26" t="n">
-        <v>0.01817638445820097</v>
+        <v>0.09877020435231941</v>
       </c>
       <c r="H26" t="n">
-        <v>1.450711650057787</v>
+        <v>1.603928935935662</v>
       </c>
       <c r="I26" t="n">
-        <v>0.02561628311409441</v>
+        <v>0.3552715426029912</v>
       </c>
       <c r="J26" t="n">
-        <v>0.05606852620760268</v>
+        <v>0.2445940364011655</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0408422941945718</v>
+        <v>0.2999327895020784</v>
       </c>
       <c r="L26" t="n">
-        <v>0.2263212417501367</v>
+        <v>0.2029726874810865</v>
       </c>
       <c r="M26" t="n">
-        <v>0.1348198222005984</v>
+        <v>0.3142772730445512</v>
       </c>
       <c r="N26" t="n">
-        <v>1.001003630296702</v>
+        <v>1.005453712190527</v>
       </c>
       <c r="O26" t="n">
-        <v>0.1405593811471839</v>
+        <v>0.3276567072016995</v>
       </c>
       <c r="P26" t="n">
-        <v>186.0152641693948</v>
+        <v>182.6299185901854</v>
       </c>
       <c r="Q26" t="n">
-        <v>294.4952125826646</v>
+        <v>291.1098670034552</v>
       </c>
     </row>
   </sheetData>
